--- a/src/main/resources/universityStatistics.xlsx
+++ b/src/main/resources/universityStatistics.xlsx
@@ -29,7 +29,7 @@
     <t>University</t>
   </si>
   <si>
-    <t>Общая Физика</t>
+    <t>Лингвистический</t>
   </si>
   <si>
     <t/>
@@ -38,10 +38,10 @@
     <t>Математический Факультет</t>
   </si>
   <si>
-    <t>Медицина</t>
+    <t>Общая Физика</t>
   </si>
   <si>
-    <t>Лингвистический</t>
+    <t>Медицина</t>
   </si>
 </sst>
 </file>
